--- a/resources/Imagens_Diagramas_Tabelas_1.2.0.xlsx
+++ b/resources/Imagens_Diagramas_Tabelas_1.2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19155" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19155" windowHeight="8505" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Plan4" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
     <sheet name="Plan5" sheetId="7" r:id="rId7"/>
+    <sheet name="Plan6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -3970,6 +3971,1177 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>544287</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="75" name="Grupo 74"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="748393" y="761843"/>
+          <a:ext cx="8368394" cy="6014514"/>
+          <a:chOff x="748393" y="761843"/>
+          <a:chExt cx="8368394" cy="6014514"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Retângulo 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2256346" y="761843"/>
+            <a:ext cx="2036989" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>1. Disponibilizar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> treinamento</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Retângulo 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5510861" y="1499347"/>
+            <a:ext cx="2036989" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>2. Plano de Qualidade</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Retângulo 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2694196" y="2543174"/>
+            <a:ext cx="2039711" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>3. Avaliação do Produto</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Retângulo 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5508154" y="2552699"/>
+            <a:ext cx="2036989" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>4. Avaliação do Processo</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Conector angulado 10"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="2"/>
+            <a:endCxn id="8" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="4899828" y="913646"/>
+            <a:ext cx="443752" cy="2815304"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="Conector angulado 11"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="2"/>
+            <a:endCxn id="9" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="6301365" y="2324707"/>
+            <a:ext cx="453277" cy="2707"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Retângulo 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4159686" y="3562349"/>
+            <a:ext cx="2036989" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>5. Relatório de não conformidades</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="Conector angulado 15"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="8" idx="2"/>
+            <a:endCxn id="15" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="4235885" y="2621415"/>
+            <a:ext cx="419100" cy="1462768"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="Conector angulado 18"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="9" idx="2"/>
+            <a:endCxn id="15" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5647628" y="2681967"/>
+            <a:ext cx="409575" cy="1351189"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Retângulo 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4155203" y="4425204"/>
+            <a:ext cx="2036989" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>7. Aprovar produto final</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="27" name="Conector reto 26"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="15" idx="2"/>
+            <a:endCxn id="26" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5170096" y="4162424"/>
+            <a:ext cx="4483" cy="262780"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="Retângulo 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7857005" y="2552699"/>
+            <a:ext cx="1259782" cy="2808515"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>6. Relatório periódico</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="32" name="Conector angulado 31"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="2"/>
+            <a:endCxn id="30" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="7281488" y="1347290"/>
+            <a:ext cx="453277" cy="1957540"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Retângulo 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4150719" y="5294788"/>
+            <a:ext cx="2036989" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>8. Relatório de lições aprendidas</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="36" name="Conector reto 35"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="26" idx="2"/>
+            <a:endCxn id="35" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5165612" y="5025279"/>
+            <a:ext cx="4484" cy="269509"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="Forma 42"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="3"/>
+            <a:endCxn id="3" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4293335" y="1061881"/>
+            <a:ext cx="1217526" cy="737504"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="Retângulo 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="748393" y="2530921"/>
+            <a:ext cx="1483178" cy="2830285"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>9. Suporte aos envolvidos no Projeto</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="45" name="Forma 44"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="1"/>
+            <a:endCxn id="44" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipV="1">
+            <a:off x="1489982" y="1061881"/>
+            <a:ext cx="766364" cy="1469040"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="Forma 47"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="44" idx="2"/>
+            <a:endCxn id="51" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="2632977" y="4218211"/>
+            <a:ext cx="1217848" cy="3503838"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="Fluxograma: Conector 50"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4993820" y="6381750"/>
+            <a:ext cx="353786" cy="394607"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="53" name="Forma 52"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="30" idx="2"/>
+            <a:endCxn id="51" idx="6"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="6308331" y="4400489"/>
+            <a:ext cx="1217840" cy="3139290"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="56" name="Forma 55"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="35" idx="2"/>
+            <a:endCxn id="51" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="4926520" y="6137556"/>
+            <a:ext cx="486887" cy="1499"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="31750" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -4776,8 +5948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" activeCellId="1" sqref="D7 F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4895,4 +6067,19 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/resources/Imagens_Diagramas_Tabelas_1.2.0.xlsx
+++ b/resources/Imagens_Diagramas_Tabelas_1.2.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19155" windowHeight="8505" activeTab="7"/>
@@ -345,8 +345,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3977,8 +3977,8 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190343</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>122302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -3993,10 +3993,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="748393" y="761843"/>
-          <a:ext cx="8368394" cy="6014514"/>
-          <a:chOff x="748393" y="761843"/>
-          <a:chExt cx="8368394" cy="6014514"/>
+          <a:off x="748393" y="1265302"/>
+          <a:ext cx="8368394" cy="5511055"/>
+          <a:chOff x="748393" y="1265302"/>
+          <a:chExt cx="8368394" cy="5511055"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4006,13 +4006,19 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2256346" y="761843"/>
+            <a:off x="2256346" y="1265302"/>
             <a:ext cx="2036989" cy="600075"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="31750" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+              <a:alpha val="30000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="75000"/>
@@ -4038,7 +4044,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr marL="0" indent="0" algn="ctr"/>
@@ -4050,37 +4056,12 @@
                     <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>1. Disponibilizar</a:t>
+              <a:t>1. Disponibilizar treinamento</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> treinamento</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4091,13 +4072,19 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5510861" y="1499347"/>
+            <a:off x="5510861" y="1268028"/>
             <a:ext cx="2036989" cy="600075"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="31750" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+              <a:alpha val="30000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="75000"/>
@@ -4123,7 +4110,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr marL="0" indent="0" algn="ctr"/>
@@ -4135,9 +4122,9 @@
                     <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>2. Plano de Qualidade</a:t>
             </a:r>
@@ -4157,7 +4144,13 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="31750" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+              <a:alpha val="30000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="75000"/>
@@ -4183,7 +4176,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr marL="0" indent="0" algn="ctr"/>
@@ -4195,9 +4188,9 @@
                     <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>3. Avaliação do Produto</a:t>
             </a:r>
@@ -4217,7 +4210,13 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="31750" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+              <a:alpha val="30000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="75000"/>
@@ -4243,7 +4242,7 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr marL="0" indent="0" algn="ctr"/>
@@ -4255,9 +4254,9 @@
                     <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>4. Avaliação do Processo</a:t>
             </a:r>
@@ -4274,8 +4273,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000">
-            <a:off x="4899828" y="913646"/>
-            <a:ext cx="443752" cy="2815304"/>
+            <a:off x="4784169" y="797986"/>
+            <a:ext cx="675071" cy="2815304"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
@@ -4318,8 +4317,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000">
-            <a:off x="6301365" y="2324707"/>
-            <a:ext cx="453277" cy="2707"/>
+            <a:off x="6185705" y="2209048"/>
+            <a:ext cx="684596" cy="2707"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
@@ -4365,7 +4364,13 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="31750" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+              <a:alpha val="30000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="75000"/>
@@ -4403,9 +4408,9 @@
                     <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>5. Relatório de não conformidades</a:t>
             </a:r>
@@ -4513,7 +4518,13 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="31750" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+              <a:alpha val="30000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="75000"/>
@@ -4551,9 +4562,9 @@
                     <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>7. Aprovar produto final</a:t>
             </a:r>
@@ -4615,7 +4626,13 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="31750" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+              <a:alpha val="30000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="75000"/>
@@ -4653,9 +4670,9 @@
                     <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>6. Relatório periódico</a:t>
             </a:r>
@@ -4672,8 +4689,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000" flipH="1">
-            <a:off x="7281488" y="1347290"/>
-            <a:ext cx="453277" cy="1957540"/>
+            <a:off x="7165828" y="1231631"/>
+            <a:ext cx="684596" cy="1957540"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
@@ -4719,7 +4736,13 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="31750" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+              <a:alpha val="30000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="75000"/>
@@ -4757,9 +4780,9 @@
                     <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>8. Relatório de lições aprendidas</a:t>
             </a:r>
@@ -4818,8 +4841,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4293335" y="1061881"/>
-            <a:ext cx="1217526" cy="737504"/>
+            <a:off x="4293335" y="1565340"/>
+            <a:ext cx="1217526" cy="2726"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
@@ -4865,7 +4888,13 @@
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="31750" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+              <a:alpha val="30000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="75000"/>
@@ -4903,9 +4932,9 @@
                     <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>9. Suporte aos envolvidos no Projeto</a:t>
             </a:r>
@@ -4922,8 +4951,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="10800000" flipV="1">
-            <a:off x="1489982" y="1061881"/>
-            <a:ext cx="766364" cy="1469040"/>
+            <a:off x="1489982" y="1565339"/>
+            <a:ext cx="766364" cy="965581"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
             <a:avLst/>
@@ -5143,9 +5172,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5183,7 +5212,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5217,6 +5246,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5251,9 +5281,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5426,14 +5457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -5441,14 +5472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -5456,14 +5487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5471,21 +5502,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5496,7 +5527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -5507,7 +5538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -5516,7 +5547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -5525,7 +5556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -5534,7 +5565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -5543,7 +5574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -5552,7 +5583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -5561,12 +5592,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>3</v>
       </c>
@@ -5577,7 +5608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -5586,7 +5617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -5595,7 +5626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>23</v>
@@ -5604,7 +5635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>25</v>
@@ -5613,7 +5644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -5622,7 +5653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>29</v>
@@ -5631,7 +5662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -5640,7 +5671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="4" t="s">
         <v>33</v>
@@ -5649,7 +5680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
         <v>35</v>
@@ -5658,7 +5689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="4" t="s">
         <v>37</v>
@@ -5667,12 +5698,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>4</v>
       </c>
@@ -5683,7 +5714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
         <v>41</v>
@@ -5692,12 +5723,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>5</v>
       </c>
@@ -5708,7 +5739,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="7" t="s">
         <v>45</v>
@@ -5729,27 +5760,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>48</v>
       </c>
@@ -5757,7 +5788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
@@ -5765,12 +5796,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
@@ -5778,12 +5809,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
@@ -5791,12 +5822,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>58</v>
       </c>
@@ -5804,12 +5835,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.5">
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>88</v>
       </c>
@@ -5817,22 +5848,22 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>65</v>
       </c>
@@ -5840,12 +5871,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>68</v>
       </c>
@@ -5853,12 +5884,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>71</v>
       </c>
@@ -5866,12 +5897,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>74</v>
       </c>
@@ -5879,17 +5910,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -5897,22 +5928,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>83</v>
       </c>
@@ -5920,17 +5951,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>87</v>
       </c>
@@ -5945,14 +5976,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5960,14 +5991,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="65.28515625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="65.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" style="16" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" style="16" customWidth="1"/>
@@ -5975,13 +6006,13 @@
     <col min="4" max="16384" width="65.28515625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="48" customHeight="1">
+    <row r="1" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="41.25" customHeight="1">
+    <row r="2" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>93</v>
       </c>
@@ -5989,7 +6020,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="54">
+    <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
@@ -5998,7 +6029,7 @@
       </c>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:3" ht="54">
+    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>90</v>
       </c>
@@ -6007,7 +6038,7 @@
       </c>
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:3" ht="40.5">
+    <row r="5" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>91</v>
       </c>
@@ -6016,14 +6047,14 @@
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:3" ht="21.75" customHeight="1">
+    <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="14" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>92</v>
       </c>
@@ -6032,19 +6063,19 @@
       </c>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" ht="27">
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27">
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27">
+    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>95</v>
       </c>
@@ -6052,7 +6083,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27">
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="14" t="s">
         <v>105</v>
@@ -6070,14 +6101,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/resources/Imagens_Diagramas_Tabelas_1.2.0.xlsx
+++ b/resources/Imagens_Diagramas_Tabelas_1.2.0.xlsx
@@ -6105,7 +6105,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Imagens_Diagramas_Tabelas_1.2.0.xlsx
+++ b/resources/Imagens_Diagramas_Tabelas_1.2.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19155" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19155" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -345,8 +345,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3243,6 +3243,1257 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="52" name="Grupo 51"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9267825" y="400051"/>
+          <a:ext cx="6115050" cy="3581399"/>
+          <a:chOff x="1247775" y="19051"/>
+          <a:chExt cx="6115050" cy="3581399"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="53" name="Group 14"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1247775" y="66675"/>
+            <a:ext cx="4038600" cy="3533775"/>
+            <a:chOff x="1247775" y="66675"/>
+            <a:chExt cx="4038600" cy="3533775"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="Rectangle 1"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1247775" y="3086100"/>
+              <a:ext cx="1638300" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+                <a:srgbClr val="000000">
+                  <a:alpha val="32000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="balanced" dir="t">
+                <a:rot lat="0" lon="0" rev="8700000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="190500" h="38100"/>
+            </a:sp3d>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Nível 1</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>INICIAL</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="Rectangle 2"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2438400" y="1666875"/>
+              <a:ext cx="1638300" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="F5F793"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+                <a:srgbClr val="000000">
+                  <a:alpha val="32000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="balanced" dir="t">
+                <a:rot lat="0" lon="0" rev="8700000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="190500" h="38100"/>
+            </a:sp3d>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Nível 3</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Definido</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="Rectangle 3"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1847850" y="2333625"/>
+              <a:ext cx="1638300" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+                <a:srgbClr val="000000">
+                  <a:alpha val="32000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="balanced" dir="t">
+                <a:rot lat="0" lon="0" rev="8700000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="190500" h="38100"/>
+            </a:sp3d>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Nível 2</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Gerenciado</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="Rectangle 4"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3076575" y="809624"/>
+              <a:ext cx="1638300" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DFF298"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+                <a:srgbClr val="000000">
+                  <a:alpha val="32000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="balanced" dir="t">
+                <a:rot lat="0" lon="0" rev="8700000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="190500" h="38100"/>
+            </a:sp3d>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Nível 4</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Quantitativamente gerenciado</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="68" name="Rectangle 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3648075" y="66675"/>
+              <a:ext cx="1638300" cy="514350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+                <a:srgbClr val="000000">
+                  <a:alpha val="32000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="balanced" dir="t">
+                <a:rot lat="0" lon="0" rev="8700000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="190500" h="38100"/>
+            </a:sp3d>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Nível 5 </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Otimizado</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="Bent Arrow 9"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1409700" y="2505075"/>
+              <a:ext cx="409575" cy="561975"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:reflection blurRad="6350" stA="50000" endA="300" endPos="38500" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="70" name="Bent Arrow 11"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2000250" y="1828801"/>
+              <a:ext cx="409575" cy="485774"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:reflection blurRad="6350" stA="50000" endA="300" endPos="38500" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="71" name="Bent Arrow 12"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2667000" y="1133476"/>
+              <a:ext cx="409575" cy="485774"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:reflection blurRad="6350" stA="50000" endA="300" endPos="38500" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="Bent Arrow 13"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3248025" y="314326"/>
+              <a:ext cx="409575" cy="485774"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:reflection blurRad="6350" stA="50000" endA="300" endPos="38500" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="CaixaDeTexto 53"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3171825" y="3076575"/>
+            <a:ext cx="2647950" cy="504825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1200" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="55" name="Conector reto 54"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="64" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2886075" y="3343275"/>
+            <a:ext cx="4229100" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="CaixaDeTexto 55"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3857625" y="2305049"/>
+            <a:ext cx="3200400" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>CM,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> MA, PMC, PP, PPQA, REQM e SAM</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="57" name="Conector reto 56"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3486150" y="2562225"/>
+            <a:ext cx="609600" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="CaixaDeTexto 57"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4429124" y="1647823"/>
+            <a:ext cx="2933701" cy="533401"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>DAR,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> IPM, OPD, OPF, OT, PI, RD, RSKM</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>TS, VAL e VER</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="59" name="Conector reto 58"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4067175" y="1914525"/>
+            <a:ext cx="609600" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="CaixaDeTexto 59"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4952999" y="838199"/>
+            <a:ext cx="1047751" cy="381001"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>OPP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> e QPM</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="61" name="Conector reto 60"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4705350" y="1143000"/>
+            <a:ext cx="609600" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="CaixaDeTexto 61"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5524499" y="19051"/>
+            <a:ext cx="990601" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>CAR e OPM</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="63" name="Conector reto 62"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5276850" y="333375"/>
+            <a:ext cx="609600" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5172,9 +6423,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5212,7 +6463,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5246,7 +6497,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5281,10 +6531,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5457,14 +6706,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -5472,14 +6721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -5487,14 +6736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5502,21 +6751,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5527,7 +6776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -5538,7 +6787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -5547,7 +6796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -5556,7 +6805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -5565,7 +6814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -5574,7 +6823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -5583,7 +6832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -5592,12 +6841,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="19">
         <v>3</v>
       </c>
@@ -5608,7 +6857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -5617,7 +6866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -5626,7 +6875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>23</v>
@@ -5635,7 +6884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>25</v>
@@ -5644,7 +6893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -5653,7 +6902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>29</v>
@@ -5662,7 +6911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -5671,7 +6920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="19"/>
       <c r="B18" s="4" t="s">
         <v>33</v>
@@ -5680,7 +6929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
         <v>35</v>
@@ -5689,7 +6938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="19"/>
       <c r="B20" s="4" t="s">
         <v>37</v>
@@ -5698,12 +6947,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="20">
         <v>4</v>
       </c>
@@ -5714,7 +6963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75">
       <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
         <v>41</v>
@@ -5723,12 +6972,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="20">
         <v>5</v>
       </c>
@@ -5739,7 +6988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="20"/>
       <c r="B26" s="7" t="s">
         <v>45</v>
@@ -5760,27 +7009,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="39" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
         <v>48</v>
       </c>
@@ -5788,7 +7037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
@@ -5796,12 +7045,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="B4" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
@@ -5809,12 +7058,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="B6" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
@@ -5822,12 +7071,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="B8" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
         <v>58</v>
       </c>
@@ -5835,12 +7084,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="B10" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="28.5">
       <c r="A11" s="12" t="s">
         <v>88</v>
       </c>
@@ -5848,22 +7097,22 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="B12" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="B13" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="B14" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
         <v>65</v>
       </c>
@@ -5871,12 +7120,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="B16" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="11" t="s">
         <v>68</v>
       </c>
@@ -5884,12 +7133,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="B18" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="11" t="s">
         <v>71</v>
       </c>
@@ -5897,12 +7146,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="B20" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
         <v>74</v>
       </c>
@@ -5910,17 +7159,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="B22" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="B23" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -5928,22 +7177,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="B26" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="B27" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="11" t="s">
         <v>83</v>
       </c>
@@ -5951,17 +7200,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="B29" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="B30" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="11" t="s">
         <v>87</v>
       </c>
@@ -5976,14 +7225,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5991,14 +7240,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="65.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="65.28515625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42.140625" style="16" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" style="16" customWidth="1"/>
@@ -6006,13 +7255,13 @@
     <col min="4" max="16384" width="65.28515625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="48" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="41.25" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>93</v>
       </c>
@@ -6020,7 +7269,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="54">
       <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
@@ -6029,7 +7278,7 @@
       </c>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="54">
       <c r="A4" s="18" t="s">
         <v>90</v>
       </c>
@@ -6038,7 +7287,7 @@
       </c>
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="40.5">
       <c r="A5" s="18" t="s">
         <v>91</v>
       </c>
@@ -6047,14 +7296,14 @@
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="21.75" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="14" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="22" t="s">
         <v>92</v>
       </c>
@@ -6063,19 +7312,19 @@
       </c>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="27">
       <c r="A8" s="22"/>
       <c r="B8" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="27">
       <c r="A9" s="22"/>
       <c r="B9" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="27">
       <c r="A10" s="22" t="s">
         <v>95</v>
       </c>
@@ -6083,7 +7332,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="27">
       <c r="A11" s="22"/>
       <c r="B11" s="14" t="s">
         <v>105</v>
@@ -6101,14 +7350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
